--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_24.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1293261.565743904</v>
+        <v>1291009.486032697</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>386.0531312245757</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,16 +713,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>201.6622187863191</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,7 +871,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>34.12489344345443</v>
+        <v>136.2971620146654</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>2.834206670629414</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -914,7 +914,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292606</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>184.4530101301274</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983813</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>162.8428108254612</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>51.04913877510005</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,10 +1187,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>177.2979137777583</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>61.42978662487896</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>61.73332682041254</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>55.52079624060472</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>26.13627195705896</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>188.769289601541</v>
       </c>
       <c r="W16" t="n">
-        <v>36.22494343870321</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>54.32649042089709</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819412</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>95.12712756823778</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>189.6272317888134</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2479,13 +2479,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>116.9020714724193</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>23.1099832571722</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,19 +2956,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0.6324680438217263</v>
       </c>
       <c r="F31" t="n">
-        <v>35.41770597126713</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>74.99129529219111</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3490,7 +3490,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>50.5268247622973</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3554,7 +3554,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,7 +3667,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>72.8097849205479</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -3679,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7722084536801</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H43" t="n">
-        <v>107.4021082756238</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>245.281288022583</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1611.504630229387</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1611.504630229387</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1253.238931622637</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>867.4506790243927</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>456.4647742347851</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>66.51211643218339</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4343,37 +4343,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539435</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X2" t="n">
-        <v>2388.243802269321</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y2" t="n">
-        <v>1998.104470293509</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.6477645191717</v>
+        <v>1759.626431033165</v>
       </c>
       <c r="C4" t="n">
-        <v>624.6477645191717</v>
+        <v>1759.626431033165</v>
       </c>
       <c r="D4" t="n">
-        <v>624.6477645191717</v>
+        <v>1759.626431033165</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>1611.713337450772</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791189</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279952</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.46409084602</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672846</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242372</v>
+        <v>2912.153322005523</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242372</v>
+        <v>2623.050455131166</v>
       </c>
       <c r="V4" t="n">
-        <v>1169.327103036485</v>
+        <v>2368.36596692528</v>
       </c>
       <c r="W4" t="n">
-        <v>879.9099329995245</v>
+        <v>2078.948796888319</v>
       </c>
       <c r="X4" t="n">
-        <v>845.4403436627018</v>
+        <v>1941.274895863404</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.6477645191717</v>
+        <v>1941.274895863404</v>
       </c>
     </row>
     <row r="5">
@@ -4541,7 +4541,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4550,25 +4550,25 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927148</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4580,37 +4580,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3028.99898128765</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.936093944079</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2345.167438673965</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.167438673965</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.167438673965</v>
+        <v>2365.667596818513</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4641,31 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158125</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438128</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992582</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410636</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886739</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533339</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>776.4603107317583</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>776.4603107317583</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>626.3436713194226</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>478.4305777370295</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>331.5406302391191</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279951</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
         <v>1927.294548088492</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1762.806860386006</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1541.040244955532</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1251.937378081175</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>997.2528898752885</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>997.2528898752885</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>997.2528898752885</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>776.4603107317583</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1238.038871968309</v>
+        <v>1643.543434242328</v>
       </c>
       <c r="C8" t="n">
-        <v>869.0763550278969</v>
+        <v>1274.580917301916</v>
       </c>
       <c r="D8" t="n">
-        <v>510.8106564211463</v>
+        <v>916.3152186951659</v>
       </c>
       <c r="E8" t="n">
-        <v>125.0224038229021</v>
+        <v>530.5269660969217</v>
       </c>
       <c r="F8" t="n">
-        <v>118.0769030736986</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4835,19 +4835,19 @@
         <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883007</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2741.012457539436</v>
+        <v>3146.517019813456</v>
       </c>
       <c r="W8" t="n">
-        <v>2388.243802269322</v>
+        <v>2793.748364543341</v>
       </c>
       <c r="X8" t="n">
-        <v>2014.778044008242</v>
+        <v>2420.282606282261</v>
       </c>
       <c r="Y8" t="n">
-        <v>1624.63871203243</v>
+        <v>2030.14327430645</v>
       </c>
     </row>
     <row r="9">
@@ -4875,13 +4875,13 @@
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1007.446783179745</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>838.5106002518381</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>688.3939608395024</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>540.4808672571093</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>393.5909197591989</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1864.937652310298</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1673.251768137125</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1673.251768137125</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1673.251768137125</v>
       </c>
       <c r="V10" t="n">
-        <v>1927.294548088493</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="W10" t="n">
-        <v>1637.877378051532</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X10" t="n">
-        <v>1409.887827153515</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y10" t="n">
-        <v>1189.095248009985</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,19 +5027,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075811</v>
@@ -5054,7 +5054,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327652</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C13" t="n">
-        <v>594.8179559048583</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D13" t="n">
-        <v>444.7013164925226</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E13" t="n">
-        <v>296.7882229101294</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>149.8982754122191</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>149.8982754122191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5227,22 +5227,22 @@
         <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603202</v>
+        <v>2420.562808876161</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.2863919474</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741513</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704552</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806535</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.4026036630049</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,40 +5264,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398594</v>
@@ -5306,16 +5306,16 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>119.2902967703784</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797189</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783227</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.02150088521</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,19 +5501,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075809</v>
@@ -5531,31 +5531,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>251.5626541092265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>746.8882603249853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>762.547769317909</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>593.6115863900021</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>443.4949469776664</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>295.5818533952732</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>148.6919058973629</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876648</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>724.7519863413023</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5978,22 +5978,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>579.1554649516144</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2356.04164637206</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>984.5467179762953</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>815.6105350483884</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1166.195182806535</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,22 +6303,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>388.6197041282753</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6382,52 +6382,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6455,37 +6455,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,25 +6534,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327652</v>
+        <v>951.3929232910542</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048583</v>
+        <v>782.4567403631473</v>
       </c>
       <c r="D31" t="n">
-        <v>444.7013164925226</v>
+        <v>632.3401009508116</v>
       </c>
       <c r="E31" t="n">
-        <v>296.7882229101294</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603202</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.2863919474</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741513</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630049</v>
+        <v>1133.041388121294</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6692,16 +6692,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,37 +6713,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,28 +6771,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>631.5645865368208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>866.4638174991042</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,22 +7248,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>800.5007694647277</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>631.5645865368208</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>481.447947124485</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2237.723229879451</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>2018.121764902392</v>
       </c>
       <c r="U40" t="n">
-        <v>1975.033022579363</v>
+        <v>1729.046538246589</v>
       </c>
       <c r="V40" t="n">
-        <v>1720.348534373476</v>
+        <v>1474.362050040702</v>
       </c>
       <c r="W40" t="n">
-        <v>1430.931364336515</v>
+        <v>1184.944880003742</v>
       </c>
       <c r="X40" t="n">
-        <v>1202.941813438498</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="Y40" t="n">
-        <v>982.1492342949674</v>
+        <v>956.9553291057244</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
@@ -7397,64 +7397,64 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
   </sheetData>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>2.345373895096259e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>84.77391660561915</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,7 +23467,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>191.2691783702293</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>63.36835372228697</v>
       </c>
       <c r="W16" t="n">
-        <v>250.2980548978878</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>111.1976478713718</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>72.11969353039005</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>28.95742156328143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>31.7134015457931</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194371</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24455,10 +24455,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>125.5054897610402</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>145.8014946027475</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0033420516641</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24920,7 +24920,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>73.62417772602124</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25318,16 +25318,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>168.0578285897975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>73.62417772602127</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>40.2540775479645</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25643,7 +25643,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H43" t="n">
-        <v>32.89260457060008</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>40.90318636666117</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>955786.9706791602</v>
+        <v>955786.9706791601</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>955786.9706791602</v>
+        <v>955786.9706791601</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787413</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>939807.5249787412</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>939807.5249787413</v>
+        <v>939807.5249787411</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>939807.5249787411</v>
+        <v>939807.5249787413</v>
       </c>
     </row>
   </sheetData>
@@ -26314,7 +26314,7 @@
         <v>492625.0619185701</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.0619185701</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
@@ -26323,10 +26323,10 @@
         <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="G2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="H2" t="n">
         <v>484287.9598140036</v>
@@ -26335,25 +26335,25 @@
         <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
+        <v>484287.9598140037</v>
+      </c>
+      <c r="K2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="M2" t="n">
+        <v>484287.9598140036</v>
+      </c>
+      <c r="N2" t="n">
         <v>484287.9598140037</v>
       </c>
-      <c r="L2" t="n">
-        <v>484287.9598140035</v>
-      </c>
-      <c r="M2" t="n">
-        <v>484287.9598140037</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>484287.9598140036</v>
       </c>
-      <c r="O2" t="n">
-        <v>484287.9598140037</v>
-      </c>
       <c r="P2" t="n">
-        <v>484287.9598140038</v>
+        <v>484287.9598140036</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7.254361662489829e-10</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
         <v>325412.4618073554</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316951</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316958</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26470,7 +26470,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613932</v>
+        <v>107933.9405613933</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26522,46 +26522,46 @@
         <v>-1035627.579323585</v>
       </c>
       <c r="C6" t="n">
-        <v>293117.1664040075</v>
+        <v>293117.1664040074</v>
       </c>
       <c r="D6" t="n">
-        <v>293117.1664040067</v>
+        <v>293117.1664040071</v>
       </c>
       <c r="E6" t="n">
-        <v>45366.04800092307</v>
+        <v>45331.31007548737</v>
       </c>
       <c r="F6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="G6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828428</v>
       </c>
       <c r="H6" t="n">
-        <v>370778.5098082785</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="I6" t="n">
-        <v>370778.5098082782</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="J6" t="n">
-        <v>153247.3074110009</v>
+        <v>153212.5694855652</v>
       </c>
       <c r="K6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="L6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="M6" t="n">
-        <v>285723.4818727665</v>
+        <v>285688.7439473307</v>
       </c>
       <c r="N6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828427</v>
       </c>
       <c r="O6" t="n">
-        <v>370778.5098082784</v>
+        <v>370743.7718828426</v>
       </c>
       <c r="P6" t="n">
-        <v>370778.5098082785</v>
+        <v>370743.7718828426</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>24.86859442887777</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>168.06888189215</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,19 +27543,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>191.5847619455827</v>
+        <v>89.41249337437173</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>362.4386851003781</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>66.5421618287746</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004739</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>26.92621450598077</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>359.8725868783534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,10 +27907,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>150.4543446923767</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>83.32522828944182</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>27.19882584963479</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28956,7 +28956,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-2.355346330481042e-12</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,37 +31118,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31157,7 +31157,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31206,16 +31206,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31224,19 +31224,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681595</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974798</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953986</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003807</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.356529362319</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574989</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095019</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099054</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.994981974641</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781687</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563567</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806945</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
-        <v>19.17787942451119</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345275</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
-        <v>22.6385688179853</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752252</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138793</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233472</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.647816683792</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970247</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002924</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
-        <v>145.536594090554</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238314</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898492</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462214</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,46 +31434,46 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430536</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311878</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742015</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098818</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883113</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023085999</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.5562817895879</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.3612387071221</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553034</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.39664015211229</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
         <v>0.1071911508780294</v>
@@ -31841,7 +31841,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742439</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>163.572382128305</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>297.1808238847171</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32549,10 +32549,10 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>301.9817606876392</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319848</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,10 +33968,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34205,13 +34205,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34220,19 +34220,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34378,7 +34378,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
         <v>926.5868626460027</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687123</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554002</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923317</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302262</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882187</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193714</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037192</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222461</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597696</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340051</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013289</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004588</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525802</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859622</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127269</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306614</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443194</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226396</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789354</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>25.73094315394598</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>159.3393849103582</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36197,10 +36197,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36440,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>161.9999866016177</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875403</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37853,13 +37853,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37868,19 +37868,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38026,7 +38026,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
         <v>696.488651224316</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
